--- a/Symphony/Hello Daffodils/Hello Daffodils Details File.xlsx
+++ b/Symphony/Hello Daffodils/Hello Daffodils Details File.xlsx
@@ -744,7 +744,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1002,6 +1002,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1737,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,21 +1751,21 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>47</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" s="40" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>49</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>52</v>
       </c>
@@ -1786,7 +1787,7 @@
         <v>50067</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>54</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>4595</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>56</v>
       </c>
@@ -1805,10 +1806,13 @@
         <v>55</v>
       </c>
       <c r="C6" s="47">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>4200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>57</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>14655</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>58</v>
       </c>
@@ -1827,10 +1831,13 @@
         <v>55</v>
       </c>
       <c r="C8" s="47">
-        <v>10752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>3752</v>
+      </c>
+      <c r="D8">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>59</v>
       </c>
@@ -1838,10 +1845,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="47">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>9354</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>60</v>
       </c>
@@ -1852,7 +1862,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>61</v>
       </c>
@@ -1863,7 +1873,7 @@
         <v>9306</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="48" t="s">
         <v>62</v>
       </c>
@@ -1871,17 +1881,24 @@
         <v>55</v>
       </c>
       <c r="C12" s="49">
-        <v>6720</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3220</v>
+      </c>
+      <c r="D12">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="82" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="50">
         <f>SUM(C4:C12)</f>
-        <v>114549</v>
+        <v>90495</v>
+      </c>
+      <c r="D13" s="87">
+        <f>SUM(D6:D12)</f>
+        <v>24054</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/Hello Daffodils/Hello Daffodils Details File.xlsx
+++ b/Symphony/Hello Daffodils/Hello Daffodils Details File.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="83">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -292,7 +292,16 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Due Summary</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>Update Due Summary</t>
+  </si>
+  <si>
+    <t>Current Due Amount</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -739,12 +748,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,9 +909,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -984,15 +999,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,7 +1008,20 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1322,11 +1341,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1450,12 +1469,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
@@ -1502,11 +1521,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="72"/>
       <c r="D5" s="23">
         <f>SUM(D3:D4)</f>
         <v>46648.75</v>
@@ -1537,18 +1556,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -1716,10 +1735,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="79"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="39">
         <f>SUM(C4:C17)</f>
         <v>45248</v>
@@ -1738,56 +1757,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-    </row>
-    <row r="2" spans="1:4" s="40" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="C3" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="47">
         <v>50067</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D4" s="84"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>54</v>
       </c>
@@ -1797,8 +1823,9 @@
       <c r="C5" s="47">
         <v>4595</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D5" s="84"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>56</v>
       </c>
@@ -1808,11 +1835,11 @@
       <c r="C6" s="47">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="84">
         <v>4200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>57</v>
       </c>
@@ -1822,8 +1849,9 @@
       <c r="C7" s="47">
         <v>14655</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D7" s="84"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>58</v>
       </c>
@@ -1833,11 +1861,14 @@
       <c r="C8" s="47">
         <v>3752</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="84">
         <v>7000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="46" t="s">
         <v>59</v>
       </c>
@@ -1845,13 +1876,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="47">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>9354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+      <c r="D9" s="84">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>60</v>
       </c>
@@ -1861,8 +1892,11 @@
       <c r="C10" s="47">
         <v>4900</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="84">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
         <v>61</v>
       </c>
@@ -1872,40 +1906,41 @@
       <c r="C11" s="47">
         <v>9306</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="D11" s="84"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="47">
         <v>3220</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="84">
         <v>3500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82" t="s">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="50">
+      <c r="B13" s="85"/>
+      <c r="C13" s="86">
         <f>SUM(C4:C12)</f>
-        <v>90495</v>
+        <v>91349</v>
       </c>
       <c r="D13" s="87">
         <f>SUM(D6:D12)</f>
-        <v>24054</v>
+        <v>27200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1931,26 +1966,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
@@ -2010,17 +2045,17 @@
       <c r="C5" s="47">
         <v>4595</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="50">
         <v>3117</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="50">
         <v>1478</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <f t="shared" ref="F5:F12" si="0">D5+E5</f>
         <v>4595</v>
       </c>
-      <c r="G5" s="51">
+      <c r="G5" s="50">
         <f t="shared" ref="G5:G12" si="1">C5-F5</f>
         <v>0</v>
       </c>
@@ -2035,17 +2070,17 @@
       <c r="C6" s="47">
         <v>4200</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="50">
         <v>3400</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="50">
         <v>800</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>4200</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2060,17 +2095,17 @@
       <c r="C7" s="47">
         <v>14655</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="50">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="50">
         <v>0</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="50">
         <f t="shared" si="1"/>
         <v>14655</v>
       </c>
@@ -2085,17 +2120,17 @@
       <c r="C8" s="47">
         <v>10752</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="50">
         <v>5367</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="50">
         <v>3000</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="50">
         <f t="shared" si="0"/>
         <v>8367</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="50">
         <f t="shared" si="1"/>
         <v>2385</v>
       </c>
@@ -2110,17 +2145,17 @@
       <c r="C9" s="47">
         <v>12354</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="50">
         <v>4025</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="50">
         <v>4440</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f t="shared" si="0"/>
         <v>8465</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="50">
         <f t="shared" si="1"/>
         <v>3889</v>
       </c>
@@ -2135,17 +2170,17 @@
       <c r="C10" s="47">
         <v>9900</v>
       </c>
-      <c r="D10" s="51">
+      <c r="D10" s="50">
         <v>3600</v>
       </c>
-      <c r="E10" s="51">
+      <c r="E10" s="50">
         <v>300</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="50">
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
@@ -2160,17 +2195,17 @@
       <c r="C11" s="47">
         <v>9306</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="50">
         <v>4400</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="50">
         <v>300</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="0"/>
         <v>4700</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f t="shared" si="1"/>
         <v>4606</v>
       </c>
@@ -2201,19 +2236,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="52">
+      <c r="B13" s="82"/>
+      <c r="C13" s="51">
         <f>SUM(C4:C12)</f>
         <v>127549</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="52">
         <f>SUM(D4:D12)</f>
         <v>27742</v>
       </c>
-      <c r="E13" s="54">
+      <c r="E13" s="53">
         <f t="shared" ref="E13:F13" si="2">SUM(E4:E12)</f>
         <v>13158</v>
       </c>
@@ -2221,7 +2256,7 @@
         <f t="shared" si="2"/>
         <v>40900</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="54">
         <f>SUM(G4:G12)</f>
         <v>86649</v>
       </c>
@@ -2257,48 +2292,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="63" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="56">
         <v>1500</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="56">
         <v>2500</v>
       </c>
-      <c r="D2" s="57">
+      <c r="D2" s="56">
         <v>1500</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="56">
         <v>20000</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F2" s="64">
         <f>B2*20+C2*10+D2*9+E2*9</f>
         <v>248500</v>
       </c>
@@ -2306,22 +2341,22 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="55">
         <v>390</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="55">
         <v>960</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="55">
         <v>620</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="55">
         <v>11300</v>
       </c>
-      <c r="F3" s="66">
+      <c r="F3" s="65">
         <f t="shared" ref="F3:F4" si="0">B3*20+C3*10+D3*9+E3*9</f>
         <v>124680</v>
       </c>
@@ -2335,31 +2370,31 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="61">
         <f>B2-B3</f>
         <v>1110</v>
       </c>
-      <c r="C4" s="62">
+      <c r="C4" s="61">
         <f t="shared" ref="C4:E4" si="1">C2-C3</f>
         <v>1540</v>
       </c>
-      <c r="D4" s="62">
+      <c r="D4" s="61">
         <f t="shared" si="1"/>
         <v>880</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="66">
         <f t="shared" si="0"/>
         <v>123820</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2367,10 +2402,10 @@
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <v>113194</v>
       </c>
       <c r="K6">
@@ -2382,18 +2417,18 @@
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="67">
         <v>390</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="67">
         <f>H3-H6-H7</f>
         <v>7604.9600000000064</v>
       </c>
